--- a/natmiOut/YoungD4/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>276.117432205564</v>
+        <v>280.1474913333333</v>
       </c>
       <c r="H2">
-        <v>276.117432205564</v>
+        <v>840.4424739999999</v>
       </c>
       <c r="I2">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="J2">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>185.892374926651</v>
+        <v>188.2096046666667</v>
       </c>
       <c r="N2">
-        <v>185.892374926651</v>
+        <v>564.628814</v>
       </c>
       <c r="O2">
-        <v>0.5063782053728951</v>
+        <v>0.5008365348387563</v>
       </c>
       <c r="P2">
-        <v>0.5063782053728951</v>
+        <v>0.5008365348387563</v>
       </c>
       <c r="Q2">
-        <v>51328.12523134084</v>
+        <v>52726.4485922051</v>
       </c>
       <c r="R2">
-        <v>51328.12523134084</v>
+        <v>474538.0373298458</v>
       </c>
       <c r="S2">
-        <v>0.1532466986336584</v>
+        <v>0.1495192743168496</v>
       </c>
       <c r="T2">
-        <v>0.1532466986336584</v>
+        <v>0.1495192743168496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>276.117432205564</v>
+        <v>280.1474913333333</v>
       </c>
       <c r="H3">
-        <v>276.117432205564</v>
+        <v>840.4424739999999</v>
       </c>
       <c r="I3">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="J3">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.4133866885023</v>
+        <v>40.607825</v>
       </c>
       <c r="N3">
-        <v>40.4133866885023</v>
+        <v>121.823475</v>
       </c>
       <c r="O3">
-        <v>0.1100876689129367</v>
+        <v>0.1080597475158536</v>
       </c>
       <c r="P3">
-        <v>0.1100876689129367</v>
+        <v>0.1080597475158536</v>
       </c>
       <c r="Q3">
-        <v>11158.84055915978</v>
+        <v>11376.18030225302</v>
       </c>
       <c r="R3">
-        <v>11158.84055915978</v>
+        <v>102385.6227202771</v>
       </c>
       <c r="S3">
-        <v>0.03331614915922249</v>
+        <v>0.03226005674013807</v>
       </c>
       <c r="T3">
-        <v>0.03331614915922249</v>
+        <v>0.03226005674013806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>276.117432205564</v>
+        <v>280.1474913333333</v>
       </c>
       <c r="H4">
-        <v>276.117432205564</v>
+        <v>840.4424739999999</v>
       </c>
       <c r="I4">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="J4">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.1983486351832</v>
+        <v>62.47735366666667</v>
       </c>
       <c r="N4">
-        <v>62.1983486351832</v>
+        <v>187.432061</v>
       </c>
       <c r="O4">
-        <v>0.1694307696669608</v>
+        <v>0.1662558155399529</v>
       </c>
       <c r="P4">
-        <v>0.1694307696669608</v>
+        <v>0.1662558155399529</v>
       </c>
       <c r="Q4">
-        <v>17174.04831257323</v>
+        <v>17502.8738948621</v>
       </c>
       <c r="R4">
-        <v>17174.04831257323</v>
+        <v>157525.8650537589</v>
       </c>
       <c r="S4">
-        <v>0.05127532311407682</v>
+        <v>0.0496338568800555</v>
       </c>
       <c r="T4">
-        <v>0.05127532311407682</v>
+        <v>0.0496338568800555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>276.117432205564</v>
+        <v>280.1474913333333</v>
       </c>
       <c r="H5">
-        <v>276.117432205564</v>
+        <v>840.4424739999999</v>
       </c>
       <c r="I5">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="J5">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.0212188747013</v>
+        <v>66.11469266666667</v>
       </c>
       <c r="N5">
-        <v>62.0212188747013</v>
+        <v>198.344078</v>
       </c>
       <c r="O5">
-        <v>0.1689482611710295</v>
+        <v>0.1759349828918012</v>
       </c>
       <c r="P5">
-        <v>0.1689482611710295</v>
+        <v>0.1759349828918012</v>
       </c>
       <c r="Q5">
-        <v>17125.13969794178</v>
+        <v>18521.865290841</v>
       </c>
       <c r="R5">
-        <v>17125.13969794178</v>
+        <v>166696.787617569</v>
       </c>
       <c r="S5">
-        <v>0.05112930017454349</v>
+        <v>0.05252346651866869</v>
       </c>
       <c r="T5">
-        <v>0.05112930017454349</v>
+        <v>0.05252346651866868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>276.117432205564</v>
+        <v>280.1474913333333</v>
       </c>
       <c r="H6">
-        <v>276.117432205564</v>
+        <v>840.4424739999999</v>
       </c>
       <c r="I6">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="J6">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.5765187709642</v>
+        <v>18.38100966666667</v>
       </c>
       <c r="N6">
-        <v>16.5765187709642</v>
+        <v>55.143029</v>
       </c>
       <c r="O6">
-        <v>0.04515509487617791</v>
+        <v>0.04891291921363591</v>
       </c>
       <c r="P6">
-        <v>0.04515509487617791</v>
+        <v>0.04891291921363589</v>
       </c>
       <c r="Q6">
-        <v>4577.065797945967</v>
+        <v>5149.393746290417</v>
       </c>
       <c r="R6">
-        <v>4577.065797945967</v>
+        <v>46344.54371661374</v>
       </c>
       <c r="S6">
-        <v>0.01366541676328294</v>
+        <v>0.01460241750913015</v>
       </c>
       <c r="T6">
-        <v>0.01366541676328294</v>
+        <v>0.01460241750913015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>135.879753661234</v>
+        <v>136.0425923333333</v>
       </c>
       <c r="H7">
-        <v>135.879753661234</v>
+        <v>408.127777</v>
       </c>
       <c r="I7">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="J7">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>185.892374926651</v>
+        <v>188.2096046666667</v>
       </c>
       <c r="N7">
-        <v>185.892374926651</v>
+        <v>564.628814</v>
       </c>
       <c r="O7">
-        <v>0.5063782053728951</v>
+        <v>0.5008365348387563</v>
       </c>
       <c r="P7">
-        <v>0.5063782053728951</v>
+        <v>0.5008365348387563</v>
       </c>
       <c r="Q7">
-        <v>25259.01011253509</v>
+        <v>25604.52252088516</v>
       </c>
       <c r="R7">
-        <v>25259.01011253509</v>
+        <v>230440.7026879665</v>
       </c>
       <c r="S7">
-        <v>0.07541401313712226</v>
+        <v>0.07260814503478914</v>
       </c>
       <c r="T7">
-        <v>0.07541401313712226</v>
+        <v>0.07260814503478914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>135.879753661234</v>
+        <v>136.0425923333333</v>
       </c>
       <c r="H8">
-        <v>135.879753661234</v>
+        <v>408.127777</v>
       </c>
       <c r="I8">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="J8">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.4133866885023</v>
+        <v>40.607825</v>
       </c>
       <c r="N8">
-        <v>40.4133866885023</v>
+        <v>121.823475</v>
       </c>
       <c r="O8">
-        <v>0.1100876689129367</v>
+        <v>0.1080597475158536</v>
       </c>
       <c r="P8">
-        <v>0.1100876689129367</v>
+        <v>0.1080597475158536</v>
       </c>
       <c r="Q8">
-        <v>5491.361027849885</v>
+        <v>5524.393782018341</v>
       </c>
       <c r="R8">
-        <v>5491.361027849885</v>
+        <v>49719.54403816508</v>
       </c>
       <c r="S8">
-        <v>0.01639516239353488</v>
+        <v>0.01566582562228574</v>
       </c>
       <c r="T8">
-        <v>0.01639516239353488</v>
+        <v>0.01566582562228574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>135.879753661234</v>
+        <v>136.0425923333333</v>
       </c>
       <c r="H9">
-        <v>135.879753661234</v>
+        <v>408.127777</v>
       </c>
       <c r="I9">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="J9">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.1983486351832</v>
+        <v>62.47735366666667</v>
       </c>
       <c r="N9">
-        <v>62.1983486351832</v>
+        <v>187.432061</v>
       </c>
       <c r="O9">
-        <v>0.1694307696669608</v>
+        <v>0.1662558155399529</v>
       </c>
       <c r="P9">
-        <v>0.1694307696669608</v>
+        <v>0.1662558155399529</v>
       </c>
       <c r="Q9">
-        <v>8451.496290684243</v>
+        <v>8499.58115493982</v>
       </c>
       <c r="R9">
-        <v>8451.496290684243</v>
+        <v>76496.2303944584</v>
       </c>
       <c r="S9">
-        <v>0.02523302573831677</v>
+        <v>0.02410272719319182</v>
       </c>
       <c r="T9">
-        <v>0.02523302573831677</v>
+        <v>0.02410272719319181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>135.879753661234</v>
+        <v>136.0425923333333</v>
       </c>
       <c r="H10">
-        <v>135.879753661234</v>
+        <v>408.127777</v>
       </c>
       <c r="I10">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="J10">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.0212188747013</v>
+        <v>66.11469266666667</v>
       </c>
       <c r="N10">
-        <v>62.0212188747013</v>
+        <v>198.344078</v>
       </c>
       <c r="O10">
-        <v>0.1689482611710295</v>
+        <v>0.1759349828918012</v>
       </c>
       <c r="P10">
-        <v>0.1689482611710295</v>
+        <v>0.1759349828918012</v>
       </c>
       <c r="Q10">
-        <v>8427.427942463888</v>
+        <v>8994.414181694956</v>
       </c>
       <c r="R10">
-        <v>8427.427942463888</v>
+        <v>80949.72763525462</v>
       </c>
       <c r="S10">
-        <v>0.02516116659891298</v>
+        <v>0.02550595227365696</v>
       </c>
       <c r="T10">
-        <v>0.02516116659891298</v>
+        <v>0.02550595227365696</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>135.879753661234</v>
+        <v>136.0425923333333</v>
       </c>
       <c r="H11">
-        <v>135.879753661234</v>
+        <v>408.127777</v>
       </c>
       <c r="I11">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="J11">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.5765187709642</v>
+        <v>18.38100966666667</v>
       </c>
       <c r="N11">
-        <v>16.5765187709642</v>
+        <v>55.143029</v>
       </c>
       <c r="O11">
-        <v>0.04515509487617791</v>
+        <v>0.04891291921363591</v>
       </c>
       <c r="P11">
-        <v>0.04515509487617791</v>
+        <v>0.04891291921363589</v>
       </c>
       <c r="Q11">
-        <v>2252.413287159437</v>
+        <v>2500.600204757392</v>
       </c>
       <c r="R11">
-        <v>2252.413287159437</v>
+        <v>22505.40184281653</v>
       </c>
       <c r="S11">
-        <v>0.006724868649693192</v>
+        <v>0.007091088779060404</v>
       </c>
       <c r="T11">
-        <v>0.006724868649693192</v>
+        <v>0.007091088779060403</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>196.139240609254</v>
+        <v>206.9361446666667</v>
       </c>
       <c r="H12">
-        <v>196.139240609254</v>
+        <v>620.808434</v>
       </c>
       <c r="I12">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="J12">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>185.892374926651</v>
+        <v>188.2096046666667</v>
       </c>
       <c r="N12">
-        <v>185.892374926651</v>
+        <v>564.628814</v>
       </c>
       <c r="O12">
-        <v>0.5063782053728951</v>
+        <v>0.5008365348387563</v>
       </c>
       <c r="P12">
-        <v>0.5063782053728951</v>
+        <v>0.5008365348387563</v>
       </c>
       <c r="Q12">
-        <v>36460.78925316405</v>
+        <v>38947.36997895748</v>
       </c>
       <c r="R12">
-        <v>36460.78925316405</v>
+        <v>350526.3298106173</v>
       </c>
       <c r="S12">
-        <v>0.1088583609364569</v>
+        <v>0.1104451874019159</v>
       </c>
       <c r="T12">
-        <v>0.1088583609364569</v>
+        <v>0.1104451874019159</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>196.139240609254</v>
+        <v>206.9361446666667</v>
       </c>
       <c r="H13">
-        <v>196.139240609254</v>
+        <v>620.808434</v>
       </c>
       <c r="I13">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="J13">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>40.4133866885023</v>
+        <v>40.607825</v>
       </c>
       <c r="N13">
-        <v>40.4133866885023</v>
+        <v>121.823475</v>
       </c>
       <c r="O13">
-        <v>0.1100876689129367</v>
+        <v>0.1080597475158536</v>
       </c>
       <c r="P13">
-        <v>0.1100876689129367</v>
+        <v>0.1080597475158536</v>
       </c>
       <c r="Q13">
-        <v>7926.650975530974</v>
+        <v>8403.226748798683</v>
       </c>
       <c r="R13">
-        <v>7926.650975530974</v>
+        <v>75629.04073918816</v>
       </c>
       <c r="S13">
-        <v>0.02366603275974858</v>
+        <v>0.02382948973328097</v>
       </c>
       <c r="T13">
-        <v>0.02366603275974858</v>
+        <v>0.02382948973328097</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>196.139240609254</v>
+        <v>206.9361446666667</v>
       </c>
       <c r="H14">
-        <v>196.139240609254</v>
+        <v>620.808434</v>
       </c>
       <c r="I14">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="J14">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.1983486351832</v>
+        <v>62.47735366666667</v>
       </c>
       <c r="N14">
-        <v>62.1983486351832</v>
+        <v>187.432061</v>
       </c>
       <c r="O14">
-        <v>0.1694307696669608</v>
+        <v>0.1662558155399529</v>
       </c>
       <c r="P14">
-        <v>0.1694307696669608</v>
+        <v>0.1662558155399529</v>
       </c>
       <c r="Q14">
-        <v>12199.53686845446</v>
+        <v>12928.82269675583</v>
       </c>
       <c r="R14">
-        <v>12199.53686845446</v>
+        <v>116359.4042708025</v>
       </c>
       <c r="S14">
-        <v>0.03642328141782022</v>
+        <v>0.03666296970503586</v>
       </c>
       <c r="T14">
-        <v>0.03642328141782022</v>
+        <v>0.03666296970503585</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>196.139240609254</v>
+        <v>206.9361446666667</v>
       </c>
       <c r="H15">
-        <v>196.139240609254</v>
+        <v>620.808434</v>
       </c>
       <c r="I15">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="J15">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.0212188747013</v>
+        <v>66.11469266666667</v>
       </c>
       <c r="N15">
-        <v>62.0212188747013</v>
+        <v>198.344078</v>
       </c>
       <c r="O15">
-        <v>0.1689482611710295</v>
+        <v>0.1759349828918012</v>
       </c>
       <c r="P15">
-        <v>0.1689482611710295</v>
+        <v>0.1759349828918012</v>
       </c>
       <c r="Q15">
-        <v>12164.79477174424</v>
+        <v>13681.51960626154</v>
       </c>
       <c r="R15">
-        <v>12164.79477174424</v>
+        <v>123133.6764563539</v>
       </c>
       <c r="S15">
-        <v>0.03631955443382352</v>
+        <v>0.03879743350251733</v>
       </c>
       <c r="T15">
-        <v>0.03631955443382352</v>
+        <v>0.03879743350251731</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>196.139240609254</v>
+        <v>206.9361446666667</v>
       </c>
       <c r="H16">
-        <v>196.139240609254</v>
+        <v>620.808434</v>
       </c>
       <c r="I16">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="J16">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.5765187709642</v>
+        <v>18.38100966666667</v>
       </c>
       <c r="N16">
-        <v>16.5765187709642</v>
+        <v>55.143029</v>
       </c>
       <c r="O16">
-        <v>0.04515509487617791</v>
+        <v>0.04891291921363591</v>
       </c>
       <c r="P16">
-        <v>0.04515509487617791</v>
+        <v>0.04891291921363589</v>
       </c>
       <c r="Q16">
-        <v>3251.305803681962</v>
+        <v>3803.695275500732</v>
       </c>
       <c r="R16">
-        <v>3251.305803681962</v>
+        <v>34233.25747950659</v>
       </c>
       <c r="S16">
-        <v>0.009707190325324465</v>
+        <v>0.01078634674817407</v>
       </c>
       <c r="T16">
-        <v>0.009707190325324465</v>
+        <v>0.01078634674817407</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>295.25367629042</v>
+        <v>305.6466113333333</v>
       </c>
       <c r="H17">
-        <v>295.25367629042</v>
+        <v>916.939834</v>
       </c>
       <c r="I17">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="J17">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>185.892374926651</v>
+        <v>188.2096046666667</v>
       </c>
       <c r="N17">
-        <v>185.892374926651</v>
+        <v>564.628814</v>
       </c>
       <c r="O17">
-        <v>0.5063782053728951</v>
+        <v>0.5008365348387563</v>
       </c>
       <c r="P17">
-        <v>0.5063782053728951</v>
+        <v>0.5008365348387563</v>
       </c>
       <c r="Q17">
-        <v>54885.4070914508</v>
+        <v>57525.62788675299</v>
       </c>
       <c r="R17">
-        <v>54885.4070914508</v>
+        <v>517730.6509807769</v>
       </c>
       <c r="S17">
-        <v>0.1638674197044991</v>
+        <v>0.1631285695490594</v>
       </c>
       <c r="T17">
-        <v>0.1638674197044991</v>
+        <v>0.1631285695490594</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>295.25367629042</v>
+        <v>305.6466113333333</v>
       </c>
       <c r="H18">
-        <v>295.25367629042</v>
+        <v>916.939834</v>
       </c>
       <c r="I18">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="J18">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>40.4133866885023</v>
+        <v>40.607825</v>
       </c>
       <c r="N18">
-        <v>40.4133866885023</v>
+        <v>121.823475</v>
       </c>
       <c r="O18">
-        <v>0.1100876689129367</v>
+        <v>0.1080597475158536</v>
       </c>
       <c r="P18">
-        <v>0.1100876689129367</v>
+        <v>0.1080597475158536</v>
       </c>
       <c r="Q18">
-        <v>11932.20099112663</v>
+        <v>12411.64410486702</v>
       </c>
       <c r="R18">
-        <v>11932.20099112663</v>
+        <v>111704.7969438032</v>
       </c>
       <c r="S18">
-        <v>0.03562511588104725</v>
+        <v>0.03519637808325806</v>
       </c>
       <c r="T18">
-        <v>0.03562511588104725</v>
+        <v>0.03519637808325806</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>295.25367629042</v>
+        <v>305.6466113333333</v>
       </c>
       <c r="H19">
-        <v>295.25367629042</v>
+        <v>916.939834</v>
       </c>
       <c r="I19">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="J19">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.1983486351832</v>
+        <v>62.47735366666667</v>
       </c>
       <c r="N19">
-        <v>62.1983486351832</v>
+        <v>187.432061</v>
       </c>
       <c r="O19">
-        <v>0.1694307696669608</v>
+        <v>0.1662558155399529</v>
       </c>
       <c r="P19">
-        <v>0.1694307696669608</v>
+        <v>0.1662558155399529</v>
       </c>
       <c r="Q19">
-        <v>18364.29109373107</v>
+        <v>19095.99143329087</v>
       </c>
       <c r="R19">
-        <v>18364.29109373107</v>
+        <v>171863.9228996179</v>
       </c>
       <c r="S19">
-        <v>0.05482894553770683</v>
+        <v>0.05415154742450327</v>
       </c>
       <c r="T19">
-        <v>0.05482894553770683</v>
+        <v>0.05415154742450326</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>295.25367629042</v>
+        <v>305.6466113333333</v>
       </c>
       <c r="H20">
-        <v>295.25367629042</v>
+        <v>916.939834</v>
       </c>
       <c r="I20">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="J20">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>62.0212188747013</v>
+        <v>66.11469266666667</v>
       </c>
       <c r="N20">
-        <v>62.0212188747013</v>
+        <v>198.344078</v>
       </c>
       <c r="O20">
-        <v>0.1689482611710295</v>
+        <v>0.1759349828918012</v>
       </c>
       <c r="P20">
-        <v>0.1689482611710295</v>
+        <v>0.1759349828918012</v>
       </c>
       <c r="Q20">
-        <v>18311.99288076834</v>
+        <v>20207.73177291145</v>
       </c>
       <c r="R20">
-        <v>18311.99288076834</v>
+        <v>181869.5859562031</v>
       </c>
       <c r="S20">
-        <v>0.05467280251777663</v>
+        <v>0.05730417031580513</v>
       </c>
       <c r="T20">
-        <v>0.05467280251777663</v>
+        <v>0.05730417031580513</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>295.25367629042</v>
+        <v>305.6466113333333</v>
       </c>
       <c r="H21">
-        <v>295.25367629042</v>
+        <v>916.939834</v>
       </c>
       <c r="I21">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="J21">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.5765187709642</v>
+        <v>18.38100966666667</v>
       </c>
       <c r="N21">
-        <v>16.5765187709642</v>
+        <v>55.143029</v>
       </c>
       <c r="O21">
-        <v>0.04515509487617791</v>
+        <v>0.04891291921363591</v>
       </c>
       <c r="P21">
-        <v>0.04515509487617791</v>
+        <v>0.04891291921363589</v>
       </c>
       <c r="Q21">
-        <v>4894.278107224334</v>
+        <v>5618.09331750191</v>
       </c>
       <c r="R21">
-        <v>4894.278107224334</v>
+        <v>50562.83985751719</v>
       </c>
       <c r="S21">
-        <v>0.01461249478227878</v>
+        <v>0.01593153452025617</v>
       </c>
       <c r="T21">
-        <v>0.01461249478227878</v>
+        <v>0.01593153452025616</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.99398797775833</v>
+        <v>9.621888666666665</v>
       </c>
       <c r="H22">
-        <v>8.99398797775833</v>
+        <v>28.865666</v>
       </c>
       <c r="I22">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="J22">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>185.892374926651</v>
+        <v>188.2096046666667</v>
       </c>
       <c r="N22">
-        <v>185.892374926651</v>
+        <v>564.628814</v>
       </c>
       <c r="O22">
-        <v>0.5063782053728951</v>
+        <v>0.5008365348387563</v>
       </c>
       <c r="P22">
-        <v>0.5063782053728951</v>
+        <v>0.5008365348387563</v>
       </c>
       <c r="Q22">
-        <v>1671.913785247243</v>
+        <v>1810.931862100014</v>
       </c>
       <c r="R22">
-        <v>1671.913785247243</v>
+        <v>16298.38675890012</v>
       </c>
       <c r="S22">
-        <v>0.004991712961158357</v>
+        <v>0.005135358536142423</v>
       </c>
       <c r="T22">
-        <v>0.004991712961158357</v>
+        <v>0.005135358536142423</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.99398797775833</v>
+        <v>9.621888666666665</v>
       </c>
       <c r="H23">
-        <v>8.99398797775833</v>
+        <v>28.865666</v>
       </c>
       <c r="I23">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="J23">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.4133866885023</v>
+        <v>40.607825</v>
       </c>
       <c r="N23">
-        <v>40.4133866885023</v>
+        <v>121.823475</v>
       </c>
       <c r="O23">
-        <v>0.1100876689129367</v>
+        <v>0.1080597475158536</v>
       </c>
       <c r="P23">
-        <v>0.1100876689129367</v>
+        <v>0.1080597475158536</v>
       </c>
       <c r="Q23">
-        <v>363.4775140168882</v>
+        <v>390.7239711454832</v>
       </c>
       <c r="R23">
-        <v>363.4775140168882</v>
+        <v>3516.51574030935</v>
       </c>
       <c r="S23">
-        <v>0.001085208719383463</v>
+        <v>0.001107997336890751</v>
       </c>
       <c r="T23">
-        <v>0.001085208719383463</v>
+        <v>0.001107997336890751</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.99398797775833</v>
+        <v>9.621888666666665</v>
       </c>
       <c r="H24">
-        <v>8.99398797775833</v>
+        <v>28.865666</v>
       </c>
       <c r="I24">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="J24">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.1983486351832</v>
+        <v>62.47735366666667</v>
       </c>
       <c r="N24">
-        <v>62.1983486351832</v>
+        <v>187.432061</v>
       </c>
       <c r="O24">
-        <v>0.1694307696669608</v>
+        <v>0.1662558155399529</v>
       </c>
       <c r="P24">
-        <v>0.1694307696669608</v>
+        <v>0.1662558155399529</v>
       </c>
       <c r="Q24">
-        <v>559.411199861259</v>
+        <v>601.1501411686251</v>
       </c>
       <c r="R24">
-        <v>559.411199861259</v>
+        <v>5410.351270517625</v>
       </c>
       <c r="S24">
-        <v>0.001670193859040196</v>
+        <v>0.001704714337166501</v>
       </c>
       <c r="T24">
-        <v>0.001670193859040196</v>
+        <v>0.0017047143371665</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.99398797775833</v>
+        <v>9.621888666666665</v>
       </c>
       <c r="H25">
-        <v>8.99398797775833</v>
+        <v>28.865666</v>
       </c>
       <c r="I25">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="J25">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>62.0212188747013</v>
+        <v>66.11469266666667</v>
       </c>
       <c r="N25">
-        <v>62.0212188747013</v>
+        <v>198.344078</v>
       </c>
       <c r="O25">
-        <v>0.1689482611710295</v>
+        <v>0.1759349828918012</v>
       </c>
       <c r="P25">
-        <v>0.1689482611710295</v>
+        <v>0.1759349828918012</v>
       </c>
       <c r="Q25">
-        <v>557.8180969249815</v>
+        <v>636.1482120695497</v>
       </c>
       <c r="R25">
-        <v>557.8180969249815</v>
+        <v>5725.333908625948</v>
       </c>
       <c r="S25">
-        <v>0.00166543744597294</v>
+        <v>0.001803960281153131</v>
       </c>
       <c r="T25">
-        <v>0.00166543744597294</v>
+        <v>0.001803960281153131</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.99398797775833</v>
+        <v>9.621888666666665</v>
       </c>
       <c r="H26">
-        <v>8.99398797775833</v>
+        <v>28.865666</v>
       </c>
       <c r="I26">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="J26">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.5765187709642</v>
+        <v>18.38100966666667</v>
       </c>
       <c r="N26">
-        <v>16.5765187709642</v>
+        <v>55.143029</v>
       </c>
       <c r="O26">
-        <v>0.04515509487617791</v>
+        <v>0.04891291921363591</v>
       </c>
       <c r="P26">
-        <v>0.04515509487617791</v>
+        <v>0.04891291921363589</v>
       </c>
       <c r="Q26">
-        <v>149.0890105391373</v>
+        <v>176.8600285935904</v>
       </c>
       <c r="R26">
-        <v>149.0890105391373</v>
+        <v>1591.740257342314</v>
       </c>
       <c r="S26">
-        <v>0.0004451243555985351</v>
+        <v>0.0005015316570151151</v>
       </c>
       <c r="T26">
-        <v>0.0004451243555985351</v>
+        <v>0.000501531657015115</v>
       </c>
     </row>
   </sheetData>
